--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -4,10 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="0" windowWidth="18120" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="20240" yWindow="20" windowWidth="21280" windowHeight="19020" tabRatio="753" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Bingo" sheetId="1" r:id="rId1"/>
+    <sheet name="AudioPlayer" sheetId="2" r:id="rId1"/>
+    <sheet name="BallTicker" sheetId="4" r:id="rId2"/>
+    <sheet name="Bingo" sheetId="1" r:id="rId3"/>
+    <sheet name="BingoGUI" sheetId="3" r:id="rId4"/>
+    <sheet name="Card" sheetId="5" r:id="rId5"/>
+    <sheet name="Cell" sheetId="6" r:id="rId6"/>
+    <sheet name="ChoosePlayer" sheetId="7" r:id="rId7"/>
+    <sheet name="Computer" sheetId="8" r:id="rId8"/>
+    <sheet name="Credits" sheetId="9" r:id="rId9"/>
+    <sheet name="Human" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
   <si>
     <t>Variables</t>
   </si>
@@ -54,15 +67,9 @@
     <t>noBingosLeft</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>Integer</t>
-  </si>
-  <si>
     <t>BingoGUI</t>
   </si>
   <si>
@@ -157,13 +164,397 @@
   </si>
   <si>
     <t>Creates and displays a shop</t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <t>AudioPlayer()</t>
+  </si>
+  <si>
+    <t>play()</t>
+  </si>
+  <si>
+    <t>loop()</t>
+  </si>
+  <si>
+    <t>stop()</t>
+  </si>
+  <si>
+    <t>close()</t>
+  </si>
+  <si>
+    <t>backgroundJL</t>
+  </si>
+  <si>
+    <t>masterCardPanel</t>
+  </si>
+  <si>
+    <t>cardPanel</t>
+  </si>
+  <si>
+    <t>pcUpperLeft</t>
+  </si>
+  <si>
+    <t>pcUpperRight</t>
+  </si>
+  <si>
+    <t>pcLowerLeft</t>
+  </si>
+  <si>
+    <t>pcLowerRight</t>
+  </si>
+  <si>
+    <t>GridBagConstraints</t>
+  </si>
+  <si>
+    <t>JLabel</t>
+  </si>
+  <si>
+    <t>statusPanel</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>bt</t>
+  </si>
+  <si>
+    <t>totalPlayerCards</t>
+  </si>
+  <si>
+    <t>JPanel</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>BallTicker</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>StatusWindow</t>
+  </si>
+  <si>
+    <t>newNotification</t>
+  </si>
+  <si>
+    <t>NewBingoNotification</t>
+  </si>
+  <si>
+    <t>BingoGUI(Bingo bingo)</t>
+  </si>
+  <si>
+    <t>showNewNumber(int n)</t>
+  </si>
+  <si>
+    <t>getGameFont()</t>
+  </si>
+  <si>
+    <t>ballFont</t>
+  </si>
+  <si>
+    <t>interiorPanel</t>
+  </si>
+  <si>
+    <t>insets</t>
+  </si>
+  <si>
+    <t>ballQueue</t>
+  </si>
+  <si>
+    <t>numberOfPixelsSlid</t>
+  </si>
+  <si>
+    <t>LEFTMOST_X_POS</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Insets</t>
+  </si>
+  <si>
+    <t>Queue&lt;Ball&gt;</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Computer&gt;</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>BallTicker()</t>
+  </si>
+  <si>
+    <t>addBall(int n)</t>
+  </si>
+  <si>
+    <t>slideBalls1px()</t>
+  </si>
+  <si>
+    <t>headerImg</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>cellLayout</t>
+  </si>
+  <si>
+    <t>cellPanel</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_COLUMNS</t>
+  </si>
+  <si>
+    <t>cardLayout</t>
+  </si>
+  <si>
+    <t>cellFont</t>
+  </si>
+  <si>
+    <t>ImageIcon</t>
+  </si>
+  <si>
+    <t>GridLayout</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Card()</t>
+  </si>
+  <si>
+    <t>generateCardLayout()</t>
+  </si>
+  <si>
+    <t>marker</t>
+  </si>
+  <si>
+    <t>cellNumber</t>
+  </si>
+  <si>
+    <t>isMarked</t>
+  </si>
+  <si>
+    <t>FONT_SIZE</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Cell(int number)</t>
+  </si>
+  <si>
+    <t>genericInitializations()</t>
+  </si>
+  <si>
+    <t>setFontSize(int n)</t>
+  </si>
+  <si>
+    <t>convertToLargeCell()</t>
+  </si>
+  <si>
+    <t>toggleToken()</t>
+  </si>
+  <si>
+    <t>getNumber()</t>
+  </si>
+  <si>
+    <t>setNumber(int n)</t>
+  </si>
+  <si>
+    <t>isMarked()</t>
+  </si>
+  <si>
+    <t>playersList</t>
+  </si>
+  <si>
+    <t>playersListModel</t>
+  </si>
+  <si>
+    <t>shopFont</t>
+  </si>
+  <si>
+    <t>newPlayers</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>JList&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>DefaultListModel&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>ChoosePlayer(Human p)</t>
+  </si>
+  <si>
+    <t>configureBackground()</t>
+  </si>
+  <si>
+    <t>configureStoreButton()</t>
+  </si>
+  <si>
+    <t>configurePlayersList()</t>
+  </si>
+  <si>
+    <t>configureNewPlayerButton()</t>
+  </si>
+  <si>
+    <t>updatePlayersList()</t>
+  </si>
+  <si>
+    <t>getNewPlayers()</t>
+  </si>
+  <si>
+    <t>totalComputerPlayers</t>
+  </si>
+  <si>
+    <t>totalComputerCards</t>
+  </si>
+  <si>
+    <t>responseTime</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>numberQueue</t>
+  </si>
+  <si>
+    <t>callNumberTimer</t>
+  </si>
+  <si>
+    <t>readNumber</t>
+  </si>
+  <si>
+    <t>ComputerCard[]</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>LimitedQueue&lt;Integer&gt;</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>numberReader</t>
+  </si>
+  <si>
+    <t>Computer(Bingo b)</t>
+  </si>
+  <si>
+    <t>enerateComputerCards()</t>
+  </si>
+  <si>
+    <t>generateResponseTime()</t>
+  </si>
+  <si>
+    <t>getResponseTime()</t>
+  </si>
+  <si>
+    <t>receiveNewNumber(int n)</t>
+  </si>
+  <si>
+    <t>calculateChanceOfPatternMiss(ComputerCard c)</t>
+  </si>
+  <si>
+    <t>Credits()</t>
+  </si>
+  <si>
+    <t>numberOfCards</t>
+  </si>
+  <si>
+    <t>bankHistory</t>
+  </si>
+  <si>
+    <t>ticketsWonInLatestRound</t>
+  </si>
+  <si>
+    <t>playerNames</t>
+  </si>
+  <si>
+    <t>choosePlayer</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Set&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>ChoosePlayer</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Human()</t>
+  </si>
+  <si>
+    <t>setTicketBank(int amountOfTickets)</t>
+  </si>
+  <si>
+    <t>getCurrentBalance()</t>
+  </si>
+  <si>
+    <t>getLatestWinnings()</t>
+  </si>
+  <si>
+    <t>purchaseCards(int cards, int cardCost)</t>
+  </si>
+  <si>
+    <t>getNumberOfCards()</t>
+  </si>
+  <si>
+    <t>addTicketsWonInLatestRound(int t)</t>
+  </si>
+  <si>
+    <t>resetTicketsWonInLatestRound()</t>
+  </si>
+  <si>
+    <t>getTicketsWonInLatestRound()</t>
+  </si>
+  <si>
+    <t>setName(String n)</t>
+  </si>
+  <si>
+    <t>getPlayerNames()</t>
+  </si>
+  <si>
+    <t>initiatePlayer()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +566,22 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,14 +602,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,19 +987,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
@@ -558,175 +1012,41 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="18"/>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="F19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -738,4 +1058,1299 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="18"/>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="20" windowWidth="21280" windowHeight="19020" tabRatio="753" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="13400" yWindow="0" windowWidth="20180" windowHeight="16060" tabRatio="753"/>
   </bookViews>
   <sheets>
     <sheet name="AudioPlayer" sheetId="2" r:id="rId1"/>
@@ -17,10 +17,14 @@
     <sheet name="Computer" sheetId="8" r:id="rId8"/>
     <sheet name="Credits" sheetId="9" r:id="rId9"/>
     <sheet name="Human" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="MasterCard" sheetId="11" r:id="rId11"/>
+    <sheet name="MessageDialog" sheetId="12" r:id="rId12"/>
+    <sheet name="NewBingoNotification" sheetId="13" r:id="rId13"/>
+    <sheet name="NewPlayer" sheetId="14" r:id="rId14"/>
+    <sheet name="PlayerCard" sheetId="15" r:id="rId15"/>
+    <sheet name="Rules" sheetId="16" r:id="rId16"/>
+    <sheet name="Shop" sheetId="17" r:id="rId17"/>
+    <sheet name="StatusWindow" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
   <si>
     <t>Variables</t>
   </si>
@@ -602,8 +606,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -633,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -646,6 +652,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -658,6 +665,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -989,9 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1064,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
@@ -1340,7 +1348,176 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="0" windowWidth="20180" windowHeight="16060" tabRatio="753"/>
+    <workbookView xWindow="9980" yWindow="5980" windowWidth="20180" windowHeight="16060" tabRatio="753"/>
   </bookViews>
   <sheets>
     <sheet name="AudioPlayer" sheetId="2" r:id="rId1"/>

--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="5980" windowWidth="20180" windowHeight="16060" tabRatio="753"/>
+    <workbookView xWindow="12340" yWindow="0" windowWidth="15820" windowHeight="16060" tabRatio="753" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="AudioPlayer" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="PlayerCard" sheetId="15" r:id="rId15"/>
     <sheet name="Rules" sheetId="16" r:id="rId16"/>
     <sheet name="Shop" sheetId="17" r:id="rId17"/>
-    <sheet name="StatusWindow" sheetId="18" r:id="rId18"/>
+    <sheet name="ShutDownTask" sheetId="19" r:id="rId18"/>
+    <sheet name="StatusWindow" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="236">
   <si>
     <t>Variables</t>
   </si>
@@ -552,6 +553,198 @@
   </si>
   <si>
     <t>initiatePlayer()</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_ROWS</t>
+  </si>
+  <si>
+    <t>MasterCard()</t>
+  </si>
+  <si>
+    <t>toggleToken(int number)</t>
+  </si>
+  <si>
+    <t>dialogButton</t>
+  </si>
+  <si>
+    <t>dialogMessage</t>
+  </si>
+  <si>
+    <t>JButton</t>
+  </si>
+  <si>
+    <t>MessageDialog(String message, ImageIcon buttonImage)</t>
+  </si>
+  <si>
+    <t>configureButton()</t>
+  </si>
+  <si>
+    <t>configureTextArea()</t>
+  </si>
+  <si>
+    <t>alphaValue</t>
+  </si>
+  <si>
+    <t>textColor</t>
+  </si>
+  <si>
+    <t>currentBingoNumber</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>NewBingoNotification()</t>
+  </si>
+  <si>
+    <t>showClaimedBingo()</t>
+  </si>
+  <si>
+    <t>setBingoText()</t>
+  </si>
+  <si>
+    <t>textField</t>
+  </si>
+  <si>
+    <t>newPlayer</t>
+  </si>
+  <si>
+    <t>NewPlayer()</t>
+  </si>
+  <si>
+    <t>configureAddPlayerButton()</t>
+  </si>
+  <si>
+    <t>configureTextField()</t>
+  </si>
+  <si>
+    <t>getNewPlayer()</t>
+  </si>
+  <si>
+    <t>configureCloseButton()</t>
+  </si>
+  <si>
+    <t>bingo</t>
+  </si>
+  <si>
+    <t>gui</t>
+  </si>
+  <si>
+    <t>callButton</t>
+  </si>
+  <si>
+    <t>buttonListener</t>
+  </si>
+  <si>
+    <t>bingoFeedbackPanel</t>
+  </si>
+  <si>
+    <t>freezeLabel</t>
+  </si>
+  <si>
+    <t>freezeFont</t>
+  </si>
+  <si>
+    <t>CallButtonMouseListener</t>
+  </si>
+  <si>
+    <t>PlayerCard(Bingo b, BingoGUI g)</t>
+  </si>
+  <si>
+    <t>addCallButton()</t>
+  </si>
+  <si>
+    <t>convertToLargeCard()</t>
+  </si>
+  <si>
+    <t>isValidBingo()</t>
+  </si>
+  <si>
+    <t>cardFreeze()</t>
+  </si>
+  <si>
+    <t>getFreezeFont()</t>
+  </si>
+  <si>
+    <t>cardWin()</t>
+  </si>
+  <si>
+    <t>Rules()</t>
+  </si>
+  <si>
+    <t>ticketBankLabel</t>
+  </si>
+  <si>
+    <t>cardsToPurchaseLabel</t>
+  </si>
+  <si>
+    <t>resetTicketBankButton</t>
+  </si>
+  <si>
+    <t>cardsToPurchase</t>
+  </si>
+  <si>
+    <t>CARD_COST</t>
+  </si>
+  <si>
+    <t>newGame</t>
+  </si>
+  <si>
+    <t>Shop()</t>
+  </si>
+  <si>
+    <t>Shop(int salePrice)</t>
+  </si>
+  <si>
+    <t>configureStartButton()</t>
+  </si>
+  <si>
+    <t>configureQuitButton()</t>
+  </si>
+  <si>
+    <t>configureCreditsButton()</t>
+  </si>
+  <si>
+    <t>configureRulesButton()</t>
+  </si>
+  <si>
+    <t>configureArrowUpButton()</t>
+  </si>
+  <si>
+    <t>configureArrowDownButton()</t>
+  </si>
+  <si>
+    <t>configureTicketBank()</t>
+  </si>
+  <si>
+    <t>configureCardsToPurchase()</t>
+  </si>
+  <si>
+    <t>configureName()</t>
+  </si>
+  <si>
+    <t>configureResetTicketBankButton ()</t>
+  </si>
+  <si>
+    <t>resetTicketLabels()</t>
+  </si>
+  <si>
+    <t>startBingo()</t>
+  </si>
+  <si>
+    <t>ShutDownTask()</t>
+  </si>
+  <si>
+    <t>bingosLeft</t>
+  </si>
+  <si>
+    <t>cardsInPlay</t>
+  </si>
+  <si>
+    <t>StatusWindow(Bingo b)</t>
+  </si>
+  <si>
+    <t>updateAvailableBingos()</t>
   </si>
 </sst>
 </file>
@@ -606,8 +799,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -639,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -653,6 +848,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -666,6 +862,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -997,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -1218,16 +1415,18 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1246,6 +1445,27 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1260,16 +1480,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,6 +1510,44 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1302,16 +1562,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1330,6 +1592,39 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1344,16 +1639,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1372,6 +1669,40 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1387,16 +1718,19 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1415,6 +1749,94 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1429,11 +1851,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1457,6 +1879,11 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="E3" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1471,16 +1898,18 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,6 +1928,135 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1513,16 +2071,17 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1543,8 +2102,88 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="0" windowWidth="15820" windowHeight="16060" tabRatio="753" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="18340" yWindow="0" windowWidth="18560" windowHeight="16060" tabRatio="906" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AudioPlayer" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="249">
   <si>
     <t>Variables</t>
   </si>
@@ -745,6 +745,45 @@
   </si>
   <si>
     <t>updateAvailableBingos()</t>
+  </si>
+  <si>
+    <t>plays clip once</t>
+  </si>
+  <si>
+    <t>plays clip repeatedly</t>
+  </si>
+  <si>
+    <t>stops clip</t>
+  </si>
+  <si>
+    <t>stops and closes clip</t>
+  </si>
+  <si>
+    <t>opens a music file with clip and sets volume</t>
+  </si>
+  <si>
+    <t>initializes the BallTicker</t>
+  </si>
+  <si>
+    <t>moves all balls 1 px to the right</t>
+  </si>
+  <si>
+    <t>adds n balls to the BallTicker and puts the numbers of the balls on the mc</t>
+  </si>
+  <si>
+    <t>creates a ball with number n</t>
+  </si>
+  <si>
+    <t>getNumberOfPlayerCards()</t>
+  </si>
+  <si>
+    <t>returns totalPlayerCards</t>
+  </si>
+  <si>
+    <t>returns "Cooper Black" if possible else returns "Impact"</t>
+  </si>
+  <si>
+    <t>Abstract method for adding the proper number of cells, numbers, cell behavior.</t>
   </si>
 </sst>
 </file>
@@ -1196,14 +1235,14 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
@@ -1233,25 +1272,40 @@
       <c r="E3" t="s">
         <v>46</v>
       </c>
+      <c r="F3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="E4" t="s">
         <v>47</v>
       </c>
+      <c r="F4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="E5" t="s">
         <v>48</v>
       </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="E6" t="s">
         <v>49</v>
       </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="E7" t="s">
         <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
@@ -2198,7 +2252,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2207,7 +2261,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
@@ -2237,6 +2291,9 @@
       <c r="E3" t="s">
         <v>85</v>
       </c>
+      <c r="F3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -2248,6 +2305,9 @@
       <c r="E4" t="s">
         <v>86</v>
       </c>
+      <c r="F4" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -2258,6 +2318,9 @@
       </c>
       <c r="E5" t="s">
         <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2511,7 +2574,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2519,8 +2582,8 @@
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
@@ -2561,6 +2624,9 @@
       <c r="E4" t="s">
         <v>72</v>
       </c>
+      <c r="F4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -2570,7 +2636,10 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>245</v>
+      </c>
+      <c r="F5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2579,6 +2648,12 @@
       </c>
       <c r="B6" t="s">
         <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2670,7 +2745,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2678,7 +2753,7 @@
     <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
@@ -2718,6 +2793,9 @@
       </c>
       <c r="E4" t="s">
         <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2774,9 +2852,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="0" windowWidth="18560" windowHeight="16060" tabRatio="906" activeTab="5"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="18560" windowHeight="15480" tabRatio="906" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AudioPlayer" sheetId="2" r:id="rId1"/>
@@ -2361,9 +2361,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2852,7 +2852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>

--- a/Specification/Project Description.xlsx
+++ b/Specification/Project Description.xlsx
@@ -2363,7 +2363,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
